--- a/medicine/Enfance/Jean-Pierre_Rosenczveig/Jean-Pierre_Rosenczveig.xlsx
+++ b/medicine/Enfance/Jean-Pierre_Rosenczveig/Jean-Pierre_Rosenczveig.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Pierre Rosenczveig, né le 7 novembre 1947 à Paris, est un magistrat français. Il a été, de 1992 à 2014, le président du tribunal pour enfants de Bobigny.
 </t>
@@ -513,19 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Famille
-Jean-Pierre Rosenczveig naît le 7 novembre 1947, à Paris dans une famille juive ashkénaze[1].
-Son père, d’origine hongroise, est footballeur et vendeur de roulement à billes. Sa mère, d’origine polonaise, est dactylographe à la SNCF[2],[3].
-Sa belle sœur est l'épouse de Claude Goasguen[4], avec qui il a lancé un appel pour la rédaction d'un "code de l'enfance"[5].
-Carrière
-Justice
-De 1974 à 1981, il devient juge des enfants à Versailles puis de 1981 à 1984, conseiller technique au cabinet du secrétariat d'État chargé de la Famille. De 1984 à 1992, il crée puis dirige l'Institut de l'enfance et de la famille, établissement public sous tutelle des Affaires sociales. En 1992, il est vice-président du tribunal de grande instance de Bobigny, et à ce titre président du tribunal pour enfants – président-délégué du conseil départemental d'accès au droit (CDAD) de la Seine-Saint-Denis[6]. Il a pris sa retraite le 30 juin 2014.
-Enseignement
-Parallèlement, en 1990, il enseigne à Paris-V René Descartes, Institut de psychologie sociale jusqu'en 2000 avant d'enseigner à l'Université Paris X, cours et séminaire de droit pénal des mineurs au sein du master 2 « recherche droit pénal et procédure pénale ».
-Autre
-Depuis 1991, il est membre du comité de rédaction du Journal du droit des Jeunes et du Journal international des droits de l'enfant. En 2002, il est président du jury des « Plaidoiries sur les droits de l'Homme », Mémorial de Caen.
-Président du bureau international des droits de l'enfant (IBCR), installé à Montréal, il a créé en 1998 et présidé jusqu'en 2012 l'association DEI (Défense des enfants International), il prend régulièrement position sur des questions juridiques et de société dans son blog sur le site du Monde[7]) avec plus de 600 billets où il s'est signalé pour des opinions concernant le droit des enfants (pénalisation de la fessée, mutilations sexuelles et homoparentalité).
-Il est membre de la Commission indépendante sur les abus sexuels dans l'Église (Ciase)[8].
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Pierre Rosenczveig naît le 7 novembre 1947, à Paris dans une famille juive ashkénaze.
+Son père, d’origine hongroise, est footballeur et vendeur de roulement à billes. Sa mère, d’origine polonaise, est dactylographe à la SNCF,.
+Sa belle sœur est l'épouse de Claude Goasguen, avec qui il a lancé un appel pour la rédaction d'un "code de l'enfance".
 </t>
         </is>
       </c>
@@ -551,14 +559,22 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Prises de position et polémique</t>
+          <t>Biographie</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Le 30 août 2020, à la suite du viol et du meurtre (commis le 20 août 2020) d'une adolescente de quinze ans à Nantes par un violeur multirécidiviste condamné en 2005 à dix-huit ans de prison, pour onze viols et deux tentatives de viol, libéré en février 2016[9],[10] (soit après douze ans et demi de détention, celle-ci ayant débuté en 2003, c'est-à-dire aux deux tiers de la peine de prison prononcée en 2005)[11], il déclare sur BFM TV : « c'est des choses qui arrivent, peuvent arriver, arriveront toujours »[12].
-Positions
-Il s'oppose aux pratiques religieuses qui ont une conséquence sur l'intégrité physique des enfants, comme l'excision ou la circoncision[1].
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Justice</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De 1974 à 1981, il devient juge des enfants à Versailles puis de 1981 à 1984, conseiller technique au cabinet du secrétariat d'État chargé de la Famille. De 1984 à 1992, il crée puis dirige l'Institut de l'enfance et de la famille, établissement public sous tutelle des Affaires sociales. En 1992, il est vice-président du tribunal de grande instance de Bobigny, et à ce titre président du tribunal pour enfants – président-délégué du conseil départemental d'accès au droit (CDAD) de la Seine-Saint-Denis. Il a pris sa retraite le 30 juin 2014.
 </t>
         </is>
       </c>
@@ -584,14 +600,170 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Enseignement</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Parallèlement, en 1990, il enseigne à Paris-V René Descartes, Institut de psychologie sociale jusqu'en 2000 avant d'enseigner à l'Université Paris X, cours et séminaire de droit pénal des mineurs au sein du master 2 « recherche droit pénal et procédure pénale ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Autre</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1991, il est membre du comité de rédaction du Journal du droit des Jeunes et du Journal international des droits de l'enfant. En 2002, il est président du jury des « Plaidoiries sur les droits de l'Homme », Mémorial de Caen.
+Président du bureau international des droits de l'enfant (IBCR), installé à Montréal, il a créé en 1998 et présidé jusqu'en 2012 l'association DEI (Défense des enfants International), il prend régulièrement position sur des questions juridiques et de société dans son blog sur le site du Monde) avec plus de 600 billets où il s'est signalé pour des opinions concernant le droit des enfants (pénalisation de la fessée, mutilations sexuelles et homoparentalité).
+Il est membre de la Commission indépendante sur les abus sexuels dans l'Église (Ciase).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Prises de position et polémique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 30 août 2020, à la suite du viol et du meurtre (commis le 20 août 2020) d'une adolescente de quinze ans à Nantes par un violeur multirécidiviste condamné en 2005 à dix-huit ans de prison, pour onze viols et deux tentatives de viol, libéré en février 2016, (soit après douze ans et demi de détention, celle-ci ayant débuté en 2003, c'est-à-dire aux deux tiers de la peine de prison prononcée en 2005), il déclare sur BFM TV : « c'est des choses qui arrivent, peuvent arriver, arriveront toujours ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Prises de position et polémique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Positions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'oppose aux pratiques religieuses qui ont une conséquence sur l'intégrité physique des enfants, comme l'excision ou la circoncision.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Responsabilités publiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1985-1995 : membre du Haut Conseil de la population et de la famille
 1991-1993 : expert français sur l'enfance auprès du Gouvernement roumain
-1986-1987 : membre du Conseil supérieur de l'adoption[13],[14]
+1986-1987 : membre du Conseil supérieur de l'adoption,
 1991-1992 : président de la commission « Déontologie des travailleurs sociaux »
 1991-1992 : membre du Comité d'éthique de La Cinq
 1992-1997 : membre du Conseil supérieur du travail social
@@ -605,44 +777,46 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Jean-Pierre_Rosenczveig</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Vie associative</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>1988-1992 : créateur et animateur du Conseil français des associations pour les droits des enfants (COFRADE), puis secrétaire général (1993-1995)
 1994-1998 : membre du Conseil d'administration de la Fondation R. Mac Donald – président d'honneur d'« Enfants du monde, droits de l'Homme »
 Depuis 1992 : président de l'association « Objectif Familles » (Trappes) dirigée par Gisèle Pellegri
 1993-juillet 2001 : président de l'Association nationale des communautés éducatives (ANCE), membre de la Fédération internationale des communautés éducatives (FICE)
 Depuis 1995 : président de l'Association pour la promotion de la citoyenneté des enfants et des jeunes (APCEJ)
-1996 : vice-président du Bureau international des droits des enfants (BIDE), dont le siège est à Montréal[15], créé par Bernard Kouchner et Andrée Ruffo
+1996 : vice-président du Bureau international des droits des enfants (BIDE), dont le siège est à Montréal, créé par Bernard Kouchner et Andrée Ruffo
 Depuis 1997 : membre du Conseil d'administration du FIDDEM
-Depuis 1998 : initiateur (avec Claude Roméo) et président de l'association « Pour la cause des enfants » – président de l'association française « Jeunesse et Droit » diffuseur du Journal du Droits des Jeunes (RAJS) – créateur et président de « Défense des Enfants International - France »[16]
+Depuis 1998 : initiateur (avec Claude Roméo) et président de l'association « Pour la cause des enfants » – président de l'association française « Jeunesse et Droit » diffuseur du Journal du Droits des Jeunes (RAJS) – créateur et président de « Défense des Enfants International - France »
 Depuis 2000 : membre du comité scientifique de la Fédération nationale des rééducateurs de l'Éducation nationale (FNAREN)
 Depuis décembre 2000 : président du Bureau international des droits de l'enfant (BIDE), actuellement dirigé par Nadja Pollaert
 Janvier 2002-juin 2005 : administrateur de l'Association du nord-est parisien pour l'aide aux mères et aux familles à domicile (Bondy).
-2005 : membre du comité directeur de l'Association Louis Chatin pour la défense des droits des enfants présidée par Guy Canivet, premier président de la Cour de cassation – membre du conseil d'administration de l'association « Espoir »[17] (Paris), puis président (18 octobre)
+2005 : membre du comité directeur de l'Association Louis Chatin pour la défense des droits des enfants présidée par Guy Canivet, premier président de la Cour de cassation – membre du conseil d'administration de l'association « Espoir » (Paris), puis président (18 octobre)
 2014 : conseiller protection de l'enfance du président de l'ADF
 Membre du comité de pilotage de la réforme de la protection de l'enfance animé par Laurence Rossignol, secrétaire d'État à la Famille et aux Personnes âgées
 Président de l'association Espoir (63, rue Croulebarbe, 14e arrondissement de Paris)
@@ -650,31 +824,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Jean-Pierre_Rosenczveig</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Jean-Pierre_Rosenczveig</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Coauteur, Les Nouvelles Procréations, rapport au Premier ministre, Documentation française, 1985.
 Les Droits des enfants en France, IDEF, 1989 - Bayard, 2011.
@@ -683,7 +859,7 @@
 La Déontologie des travailleurs sociaux au carrefour des libertés des usagers, rapport au ministre des Affaires sociales et de l'Intégration, 1992.
 L'Enfant et la séparation de ses parents – Moi, mon ex, mes, nos enfants, Éditions Jeunesse et Droit, coll. « Deux cents questions sur... », 1997, 253 p.  (ISBN 2-930176-04-0 et 978-2930176048).
 En collaboration, l'Éducation civique en 4e, éd. Hachette, 1998.
-Avec Pierre Verdier[18], Les Responsabilités en travail social, éd. Dunod – Éditions Jeunesse et droit, coll. « Action sociale », 1998, 335 p.  (ISBN 210004219X et 978-2100042197).
+Avec Pierre Verdier, Les Responsabilités en travail social, éd. Dunod – Éditions Jeunesse et droit, coll. « Action sociale », 1998, 335 p.  (ISBN 210004219X et 978-2100042197).
 Conception, coordination et écriture du jeu, Place de la loi, production APCEJ avec l'aide d'Alizé-production, 1998.
 Avec Pierre Verdier, La Parole de l'enfant  : aspects juridiques, éthiques et politiques, éd. Dunod – Éditions Jeunesse et droit, coll. « Action sociale », 1999, 237 p.  (ISBN 2100045350 et 978-2100045358).
 Avec C. Mendibil, Justice pour les enfants, éd. Robert Laffont, coll. « Aider la vie », 1999, 414 p.  (ISBN 2221089413 et 9782221089415).
